--- a/assets/latest data/UVA GRO Inclusion levels.xlsx
+++ b/assets/latest data/UVA GRO Inclusion levels.xlsx
@@ -17,12 +17,12 @@
     <sheet name="Composition April 8, 2023" sheetId="6" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="87">
   <si>
     <t>Barseem</t>
   </si>
@@ -247,6 +247,42 @@
   </si>
   <si>
     <t>Cow pea (Rawanhan)</t>
+  </si>
+  <si>
+    <t>Molasses</t>
+  </si>
+  <si>
+    <t>Barseem Hay</t>
+  </si>
+  <si>
+    <t>Lucerne Hay</t>
+  </si>
+  <si>
+    <t>Cowpea Hay</t>
+  </si>
+  <si>
+    <t>Millet Straw</t>
+  </si>
+  <si>
+    <t>Cow Pea (Mature)</t>
+  </si>
+  <si>
+    <t>Sorghum Fodder</t>
+  </si>
+  <si>
+    <t>Millet Fodder</t>
+  </si>
+  <si>
+    <t>Sorghum Silage</t>
+  </si>
+  <si>
+    <t>Fenugreek Fodder</t>
+  </si>
+  <si>
+    <t>Rhodes Grass late vegetative</t>
+  </si>
+  <si>
+    <t>Sugarcane Bagasse</t>
   </si>
 </sst>
 </file>
@@ -3226,10 +3262,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="98" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4699,6 +4735,66 @@
       </c>
       <c r="I49" s="4">
         <v>0.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
